--- a/data/CAMPAÑAS.xlsx
+++ b/data/CAMPAÑAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlipioD\KAP\EmailAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7552A97-5F6A-444F-8048-193495D6827E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377FA4F8-C45C-406A-B75A-B1E99F5F5959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Productos Julio</t>
-  </si>
-  <si>
-    <t>Boba Pearls plus Delicious Fudge and Seasonal Comforts from Sage Wholesale</t>
   </si>
   <si>
     <t>SÍ</t>
@@ -441,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -481,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -495,17 +492,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
